--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -1411,13 +1411,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>94173</xdr:rowOff>
+      <xdr:rowOff>94172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>139197</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1426,8 +1426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9639300" y="7206173"/>
-          <a:ext cx="1752600" cy="578424"/>
+          <a:off x="9639300" y="7206172"/>
+          <a:ext cx="1752600" cy="712278"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1491,6 +1491,7 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>注销</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2280,38 +2281,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>将</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
             <a:t>user.go</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>放入</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>common</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>包</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>新增两个消息类型 用于注册消息传递</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2319,16 +2291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2337,7 +2309,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9042400" y="9734550"/>
+          <a:off x="6635750" y="9791700"/>
           <a:ext cx="1358900" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2993,6 +2965,206 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>49722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9099550" y="8050722"/>
+          <a:ext cx="2362200" cy="896428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>userMgr.go</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>维护在线用户连接</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>onlineUsers map[int]*UserProcess</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9474200" y="9810750"/>
+          <a:ext cx="4057650" cy="615950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在服务器维护</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>onlineUser</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>创建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>userMgr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>进行管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>LoginResMess</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>增加一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OnlineUsers[]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>字段</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>处理新登录用户数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3287,7 +3459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -1435,6 +1435,14 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>注销</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>等出</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2946,15 +2954,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2963,7 +2971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="469900" y="10636250"/>
+          <a:off x="476250" y="10642600"/>
           <a:ext cx="4057650" cy="1435100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2992,6 +3000,14 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>任务栏</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户登出</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3361,7 +3377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -2996,15 +2996,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>分离</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>User</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>结构体</a:t>
+            <a:t>解决重复登录</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>

--- a/Go/软件结构.xlsx
+++ b/Go/软件结构.xlsx
@@ -2995,8 +2995,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>解决重复登录</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>dao</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>支持</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>mysql</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
@@ -3717,7 +3729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
